--- a/Template pour Data HMS.xlsx
+++ b/Template pour Data HMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mfinances365-my.sharepoint.com/personal/houssine_msl-itech_com/Documents/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSL-ITECH\filestransfert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_80627CC48B912DCEBD0C9FF5D098E68F5120981C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89043409-2C93-4C7A-854D-8F1CCEEB3920}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44532E3A-9099-4735-9EAF-076CF5964073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4549,15 +4549,15 @@
   <dimension ref="A1:AL675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="38" width="30.7109375" customWidth="1"/>
+    <col min="1" max="38" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>100</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>117</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>125</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>137</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>145</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>147</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>149</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>155</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>159</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>161</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>163</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>165</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>167</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>171</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>173</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>175</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>177</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>179</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>181</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>183</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>185</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>189</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>191</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>195</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>197</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>199</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>201</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>203</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>205</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>207</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>211</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>213</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>217</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>219</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>221</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>223</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>225</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>227</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>229</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>231</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>233</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>235</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>237</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>239</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>241</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>243</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>245</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>247</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>249</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>251</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>253</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>255</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>257</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>259</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>261</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>263</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>265</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>267</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>269</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>271</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>273</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>275</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>277</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>279</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>281</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>283</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>285</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>287</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>289</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>291</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>293</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>295</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>296</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>298</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>300</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>302</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>304</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>306</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>308</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>310</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>312</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>314</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>316</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>318</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>320</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>322</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>324</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>326</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>328</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>330</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>332</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>334</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>336</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>338</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>340</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>342</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>344</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>346</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>348</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>350</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>352</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>354</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>356</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>358</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>360</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>362</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>364</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>366</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>368</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>370</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>372</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>374</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>376</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>378</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>380</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>382</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>384</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>386</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>388</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>390</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>392</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>394</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>396</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>398</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>400</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>402</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>404</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>406</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>408</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>410</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>412</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>414</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>416</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>418</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>424</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>426</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>428</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>432</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>434</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>436</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>438</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>440</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>442</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>444</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>446</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>448</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>450</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>452</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>454</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>456</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>458</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>460</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>462</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>464</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>466</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>468</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>470</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>472</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>474</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>476</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>478</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>480</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>482</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>484</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>486</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>488</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>490</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>492</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>494</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>496</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>498</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>500</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>502</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>504</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>506</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>508</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>510</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>512</v>
       </c>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>514</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>516</v>
       </c>
@@ -26577,7 +26577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>518</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>520</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>522</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>524</v>
       </c>
@@ -26945,7 +26945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>526</v>
       </c>
@@ -27037,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>528</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>530</v>
       </c>
@@ -27221,7 +27221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>532</v>
       </c>
@@ -27313,7 +27313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>534</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>536</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>538</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>540</v>
       </c>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>542</v>
       </c>
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>544</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>546</v>
       </c>
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>548</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>550</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>552</v>
       </c>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>554</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>556</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>558</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>560</v>
       </c>
@@ -28601,7 +28601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>562</v>
       </c>
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>564</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>566</v>
       </c>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>568</v>
       </c>
@@ -28969,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>570</v>
       </c>
@@ -29061,7 +29061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>572</v>
       </c>
@@ -29153,7 +29153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>574</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>576</v>
       </c>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>578</v>
       </c>
@@ -29429,7 +29429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>580</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>582</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>584</v>
       </c>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>586</v>
       </c>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>588</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>590</v>
       </c>
@@ -29981,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>592</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>594</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>596</v>
       </c>
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>598</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>600</v>
       </c>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>602</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>604</v>
       </c>
@@ -30625,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>606</v>
       </c>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>608</v>
       </c>
@@ -30809,7 +30809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>610</v>
       </c>
@@ -30901,7 +30901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>612</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>614</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>616</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>618</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>620</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>622</v>
       </c>
@@ -31453,7 +31453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>624</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>626</v>
       </c>
@@ -31637,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>628</v>
       </c>
@@ -31729,7 +31729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>630</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>632</v>
       </c>
@@ -31913,7 +31913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>634</v>
       </c>
@@ -32005,7 +32005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>636</v>
       </c>
@@ -32097,7 +32097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>638</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>640</v>
       </c>
@@ -32281,7 +32281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>642</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>644</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>646</v>
       </c>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>648</v>
       </c>
@@ -32649,7 +32649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>650</v>
       </c>
@@ -32741,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>652</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>654</v>
       </c>
@@ -32925,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>656</v>
       </c>
@@ -33017,7 +33017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>658</v>
       </c>
@@ -33109,7 +33109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>660</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>662</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>664</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>666</v>
       </c>
@@ -33477,7 +33477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>668</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>670</v>
       </c>
@@ -33661,7 +33661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>672</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>674</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>676</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>678</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>679</v>
       </c>
@@ -34119,7 +34119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>681</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>683</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>685</v>
       </c>
@@ -34395,7 +34395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>687</v>
       </c>
@@ -34487,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>689</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>691</v>
       </c>
@@ -34671,7 +34671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>693</v>
       </c>
@@ -34763,7 +34763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>695</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>697</v>
       </c>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>699</v>
       </c>
@@ -35039,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>701</v>
       </c>
@@ -35131,7 +35131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>703</v>
       </c>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>705</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>707</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>709</v>
       </c>
@@ -35499,7 +35499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>711</v>
       </c>
@@ -35591,7 +35591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>713</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>715</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>717</v>
       </c>
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>719</v>
       </c>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>721</v>
       </c>
@@ -36051,7 +36051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>723</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>725</v>
       </c>
@@ -36235,7 +36235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>727</v>
       </c>
@@ -36327,7 +36327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>729</v>
       </c>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>731</v>
       </c>
@@ -36511,7 +36511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>733</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>735</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>737</v>
       </c>
@@ -36787,7 +36787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>739</v>
       </c>
@@ -36879,7 +36879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>741</v>
       </c>
@@ -36971,7 +36971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>743</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>745</v>
       </c>
@@ -37155,7 +37155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>747</v>
       </c>
@@ -37247,7 +37247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>749</v>
       </c>
@@ -37339,7 +37339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>751</v>
       </c>
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>753</v>
       </c>
@@ -37523,7 +37523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>755</v>
       </c>
@@ -37615,7 +37615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>757</v>
       </c>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>759</v>
       </c>
@@ -37799,7 +37799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>761</v>
       </c>
@@ -37891,7 +37891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>763</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>765</v>
       </c>
@@ -38075,7 +38075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>767</v>
       </c>
@@ -38167,7 +38167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>769</v>
       </c>
@@ -38259,7 +38259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>771</v>
       </c>
@@ -38351,7 +38351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>773</v>
       </c>
@@ -38443,7 +38443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>775</v>
       </c>
@@ -38535,7 +38535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>777</v>
       </c>
@@ -38627,7 +38627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>779</v>
       </c>
@@ -38719,7 +38719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>781</v>
       </c>
@@ -38811,7 +38811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>783</v>
       </c>
@@ -38903,7 +38903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>785</v>
       </c>
@@ -38995,7 +38995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>787</v>
       </c>
@@ -39087,7 +39087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>789</v>
       </c>
@@ -39179,7 +39179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>791</v>
       </c>
@@ -39271,7 +39271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>793</v>
       </c>
@@ -39363,7 +39363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>795</v>
       </c>
@@ -39455,7 +39455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>797</v>
       </c>
@@ -39547,7 +39547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>799</v>
       </c>
@@ -39639,7 +39639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>801</v>
       </c>
@@ -39731,7 +39731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>803</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>805</v>
       </c>
@@ -39915,7 +39915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>807</v>
       </c>
@@ -40007,7 +40007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>809</v>
       </c>
@@ -40099,7 +40099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>811</v>
       </c>
@@ -40191,7 +40191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>813</v>
       </c>
@@ -40283,7 +40283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>815</v>
       </c>
@@ -40375,7 +40375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>817</v>
       </c>
@@ -40467,7 +40467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>819</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>821</v>
       </c>
@@ -40651,7 +40651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>823</v>
       </c>
@@ -40743,7 +40743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>825</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>827</v>
       </c>
@@ -40927,7 +40927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>829</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>831</v>
       </c>
@@ -41111,7 +41111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>833</v>
       </c>
@@ -41203,7 +41203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>835</v>
       </c>
@@ -41295,7 +41295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>837</v>
       </c>
@@ -41387,7 +41387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>839</v>
       </c>
@@ -41479,7 +41479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>841</v>
       </c>
@@ -41571,7 +41571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>843</v>
       </c>
@@ -41663,7 +41663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>845</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>847</v>
       </c>
@@ -41847,7 +41847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>849</v>
       </c>
@@ -41939,7 +41939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>851</v>
       </c>
@@ -42031,7 +42031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>853</v>
       </c>
@@ -42123,7 +42123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>855</v>
       </c>
@@ -42215,7 +42215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>857</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>859</v>
       </c>
@@ -42399,7 +42399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>861</v>
       </c>
@@ -42491,7 +42491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>863</v>
       </c>
@@ -42583,7 +42583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>865</v>
       </c>
@@ -42675,7 +42675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>867</v>
       </c>
@@ -42767,7 +42767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>869</v>
       </c>
@@ -42859,7 +42859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>871</v>
       </c>
@@ -42951,7 +42951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>873</v>
       </c>
@@ -43043,7 +43043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>875</v>
       </c>
@@ -43135,7 +43135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>877</v>
       </c>
@@ -43227,7 +43227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>879</v>
       </c>
@@ -43319,7 +43319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>881</v>
       </c>
@@ -43411,7 +43411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>883</v>
       </c>
@@ -43503,7 +43503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>885</v>
       </c>
@@ -43595,7 +43595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>887</v>
       </c>
@@ -43687,7 +43687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>889</v>
       </c>
@@ -43779,7 +43779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>891</v>
       </c>
@@ -43871,7 +43871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>893</v>
       </c>
@@ -43963,7 +43963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>895</v>
       </c>
@@ -44055,7 +44055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>897</v>
       </c>
@@ -44147,7 +44147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>899</v>
       </c>
@@ -44239,7 +44239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>901</v>
       </c>
@@ -44331,7 +44331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>903</v>
       </c>
@@ -44423,7 +44423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>905</v>
       </c>
@@ -44515,7 +44515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>907</v>
       </c>
@@ -44607,7 +44607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>909</v>
       </c>
@@ -44699,7 +44699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>911</v>
       </c>
@@ -44791,7 +44791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>913</v>
       </c>
@@ -44883,7 +44883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>915</v>
       </c>
@@ -44975,7 +44975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>917</v>
       </c>
@@ -45067,7 +45067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>919</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>921</v>
       </c>
@@ -45251,7 +45251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>923</v>
       </c>
@@ -45343,7 +45343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>925</v>
       </c>
@@ -45435,7 +45435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>927</v>
       </c>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>929</v>
       </c>
@@ -45619,7 +45619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>931</v>
       </c>
@@ -45711,7 +45711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>933</v>
       </c>
@@ -45803,7 +45803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>935</v>
       </c>
@@ -45895,7 +45895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>937</v>
       </c>
@@ -45987,7 +45987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>939</v>
       </c>
@@ -46079,7 +46079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>941</v>
       </c>
@@ -46171,7 +46171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>943</v>
       </c>
@@ -46263,7 +46263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>945</v>
       </c>
@@ -46355,7 +46355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>947</v>
       </c>
@@ -46447,7 +46447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>949</v>
       </c>
@@ -46539,7 +46539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>951</v>
       </c>
@@ -46631,7 +46631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>953</v>
       </c>
@@ -46723,7 +46723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>955</v>
       </c>
@@ -46815,7 +46815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>957</v>
       </c>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>959</v>
       </c>
@@ -46999,7 +46999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>961</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>963</v>
       </c>
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>965</v>
       </c>
@@ -47275,7 +47275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>967</v>
       </c>
@@ -47367,7 +47367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>969</v>
       </c>
@@ -47459,7 +47459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>971</v>
       </c>
@@ -47551,7 +47551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>973</v>
       </c>
@@ -47643,7 +47643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>975</v>
       </c>
@@ -47735,7 +47735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>977</v>
       </c>
@@ -47827,7 +47827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>979</v>
       </c>
@@ -47919,7 +47919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>981</v>
       </c>
@@ -48011,7 +48011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>983</v>
       </c>
@@ -48103,7 +48103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>985</v>
       </c>
@@ -48195,7 +48195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>987</v>
       </c>
@@ -48287,7 +48287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>989</v>
       </c>
@@ -48379,7 +48379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>991</v>
       </c>
@@ -48471,7 +48471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>993</v>
       </c>
@@ -48563,7 +48563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>995</v>
       </c>
@@ -48655,7 +48655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>997</v>
       </c>
@@ -48747,7 +48747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>999</v>
       </c>
@@ -48839,7 +48839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>1001</v>
       </c>
@@ -48931,7 +48931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>1003</v>
       </c>
@@ -49023,7 +49023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>1005</v>
       </c>
@@ -49115,7 +49115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>1007</v>
       </c>
@@ -49207,7 +49207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>1009</v>
       </c>
@@ -49299,7 +49299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>1011</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>1013</v>
       </c>
@@ -49483,7 +49483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>1015</v>
       </c>
@@ -49575,7 +49575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>1017</v>
       </c>
@@ -49667,7 +49667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>1019</v>
       </c>
@@ -49759,7 +49759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>1021</v>
       </c>
@@ -49851,7 +49851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>1023</v>
       </c>
@@ -49943,7 +49943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>1025</v>
       </c>
@@ -50035,7 +50035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>1027</v>
       </c>
@@ -50127,7 +50127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>1029</v>
       </c>
@@ -50219,7 +50219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>1031</v>
       </c>
@@ -50311,7 +50311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>1033</v>
       </c>
@@ -50403,7 +50403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>1035</v>
       </c>
@@ -50495,7 +50495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>1037</v>
       </c>
@@ -50587,7 +50587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>1039</v>
       </c>
@@ -50679,7 +50679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>1041</v>
       </c>
@@ -50771,7 +50771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>1043</v>
       </c>
@@ -50863,7 +50863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>1045</v>
       </c>
@@ -50955,7 +50955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>1047</v>
       </c>
@@ -51047,7 +51047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>1049</v>
       </c>
@@ -51139,7 +51139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>1051</v>
       </c>
@@ -51231,7 +51231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>1053</v>
       </c>
@@ -51323,7 +51323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>1055</v>
       </c>
@@ -51415,7 +51415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>1057</v>
       </c>
@@ -51507,7 +51507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>1059</v>
       </c>
@@ -51599,7 +51599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>1061</v>
       </c>
@@ -51691,7 +51691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>1063</v>
       </c>
@@ -51783,7 +51783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>1065</v>
       </c>
@@ -51875,7 +51875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>1067</v>
       </c>
@@ -51967,7 +51967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>1069</v>
       </c>
@@ -52059,7 +52059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>1071</v>
       </c>
@@ -52151,7 +52151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>1073</v>
       </c>
@@ -52243,7 +52243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>1075</v>
       </c>
@@ -52335,7 +52335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>1077</v>
       </c>
@@ -52427,7 +52427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>1079</v>
       </c>
@@ -52519,7 +52519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>1081</v>
       </c>
@@ -52611,7 +52611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>1083</v>
       </c>
@@ -52703,7 +52703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>1085</v>
       </c>
@@ -52795,7 +52795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>1087</v>
       </c>
@@ -52887,7 +52887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>1089</v>
       </c>
@@ -52979,7 +52979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>1091</v>
       </c>
@@ -53071,7 +53071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>1093</v>
       </c>
@@ -53163,7 +53163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>1095</v>
       </c>
@@ -53255,7 +53255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>1097</v>
       </c>
@@ -53347,7 +53347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>1099</v>
       </c>
@@ -53439,7 +53439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>1101</v>
       </c>
@@ -53531,7 +53531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>1103</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>1105</v>
       </c>
@@ -53715,7 +53715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>1107</v>
       </c>
@@ -53807,7 +53807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>1109</v>
       </c>
@@ -53899,7 +53899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>1111</v>
       </c>
@@ -53991,7 +53991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>1113</v>
       </c>
@@ -54083,7 +54083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>1115</v>
       </c>
@@ -54175,7 +54175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>1117</v>
       </c>
@@ -54267,7 +54267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>1119</v>
       </c>
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>1121</v>
       </c>
@@ -54451,7 +54451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>1123</v>
       </c>
@@ -54543,7 +54543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>1125</v>
       </c>
@@ -54635,7 +54635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>1127</v>
       </c>
@@ -54727,7 +54727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>1129</v>
       </c>
@@ -54819,7 +54819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>1131</v>
       </c>
@@ -54911,7 +54911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>1133</v>
       </c>
@@ -55003,7 +55003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>1135</v>
       </c>
@@ -55095,7 +55095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>1137</v>
       </c>
@@ -55187,7 +55187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>1139</v>
       </c>
@@ -55279,7 +55279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>1141</v>
       </c>
@@ -55371,7 +55371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>1143</v>
       </c>
@@ -55463,7 +55463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>1145</v>
       </c>
@@ -55555,7 +55555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>1147</v>
       </c>
@@ -55647,7 +55647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>1149</v>
       </c>
@@ -55739,7 +55739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>1151</v>
       </c>
@@ -55831,7 +55831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>1153</v>
       </c>
@@ -55923,7 +55923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>1155</v>
       </c>
@@ -56015,7 +56015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>1157</v>
       </c>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>1159</v>
       </c>
@@ -56199,7 +56199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>1161</v>
       </c>
@@ -56291,7 +56291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>1163</v>
       </c>
@@ -56383,7 +56383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>1165</v>
       </c>
@@ -56475,7 +56475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>1167</v>
       </c>
@@ -56567,7 +56567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>1169</v>
       </c>
@@ -56659,7 +56659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>1171</v>
       </c>
@@ -56751,7 +56751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>1173</v>
       </c>
@@ -56843,7 +56843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>1175</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>1177</v>
       </c>
@@ -57027,7 +57027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>1179</v>
       </c>
@@ -57119,7 +57119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>1181</v>
       </c>
@@ -57211,7 +57211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>1183</v>
       </c>
@@ -57303,7 +57303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>1185</v>
       </c>
@@ -57395,7 +57395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>1187</v>
       </c>
@@ -57487,7 +57487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>1189</v>
       </c>
@@ -57579,7 +57579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>1191</v>
       </c>
@@ -57671,7 +57671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>1193</v>
       </c>
@@ -57763,7 +57763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>1195</v>
       </c>
@@ -57855,7 +57855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>1197</v>
       </c>
@@ -57947,7 +57947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>1199</v>
       </c>
@@ -58039,7 +58039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>1201</v>
       </c>
@@ -58131,7 +58131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>1203</v>
       </c>
@@ -58223,7 +58223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>1205</v>
       </c>
@@ -58315,7 +58315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>1207</v>
       </c>
@@ -58407,7 +58407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>1209</v>
       </c>
@@ -58499,7 +58499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>1211</v>
       </c>
@@ -58591,7 +58591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>1213</v>
       </c>
@@ -58683,7 +58683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>1215</v>
       </c>
@@ -58775,7 +58775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>1217</v>
       </c>
@@ -58867,7 +58867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>1219</v>
       </c>
@@ -58959,7 +58959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>1221</v>
       </c>
@@ -59051,7 +59051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>1223</v>
       </c>
@@ -59143,7 +59143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>1225</v>
       </c>
@@ -59235,7 +59235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>1227</v>
       </c>
@@ -59327,7 +59327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>1229</v>
       </c>
@@ -59419,7 +59419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>1231</v>
       </c>
@@ -59511,7 +59511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>1233</v>
       </c>
@@ -59603,7 +59603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>1235</v>
       </c>
@@ -59695,7 +59695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>1237</v>
       </c>
@@ -59787,7 +59787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>1239</v>
       </c>
@@ -59879,7 +59879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>1241</v>
       </c>
@@ -59971,7 +59971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>1243</v>
       </c>
@@ -60063,7 +60063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>1245</v>
       </c>
@@ -60155,7 +60155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>1247</v>
       </c>
@@ -60247,7 +60247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>1249</v>
       </c>
@@ -60339,7 +60339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>1251</v>
       </c>
@@ -60431,7 +60431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>1253</v>
       </c>
@@ -60523,7 +60523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>1255</v>
       </c>
@@ -60615,7 +60615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>1257</v>
       </c>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>1259</v>
       </c>
@@ -60799,7 +60799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>1261</v>
       </c>
@@ -60891,7 +60891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>1263</v>
       </c>
@@ -60983,7 +60983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>1265</v>
       </c>
@@ -61075,7 +61075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>1267</v>
       </c>
@@ -61167,7 +61167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>1269</v>
       </c>
@@ -61259,7 +61259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>1271</v>
       </c>
@@ -61351,7 +61351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>1273</v>
       </c>
@@ -61443,7 +61443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>1275</v>
       </c>
@@ -61535,7 +61535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>1277</v>
       </c>
@@ -61627,7 +61627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>1279</v>
       </c>
@@ -61719,7 +61719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>1281</v>
       </c>
@@ -61811,7 +61811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>1283</v>
       </c>
@@ -61903,7 +61903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>1285</v>
       </c>
@@ -61995,7 +61995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>1287</v>
       </c>
@@ -62087,7 +62087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>1289</v>
       </c>
@@ -62179,7 +62179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>1291</v>
       </c>
@@ -62271,7 +62271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>1293</v>
       </c>
@@ -62363,7 +62363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>1295</v>
       </c>
@@ -62455,7 +62455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>1297</v>
       </c>
@@ -62547,7 +62547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>1299</v>
       </c>
@@ -62639,7 +62639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>1301</v>
       </c>
@@ -62731,7 +62731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>1303</v>
       </c>
@@ -62823,7 +62823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>1305</v>
       </c>
@@ -62915,7 +62915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>1307</v>
       </c>
@@ -63007,7 +63007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>1309</v>
       </c>
@@ -63099,7 +63099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>1311</v>
       </c>
@@ -63191,7 +63191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>1313</v>
       </c>
@@ -63283,7 +63283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>1315</v>
       </c>
@@ -63375,7 +63375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>1317</v>
       </c>
@@ -63467,7 +63467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>1319</v>
       </c>
@@ -63559,7 +63559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>1321</v>
       </c>
@@ -63651,7 +63651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>1323</v>
       </c>
@@ -63743,7 +63743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>1325</v>
       </c>
@@ -63835,7 +63835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>1327</v>
       </c>
@@ -63927,7 +63927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>1329</v>
       </c>
@@ -64019,7 +64019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>1331</v>
       </c>
@@ -64111,7 +64111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>1333</v>
       </c>
@@ -64203,7 +64203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>1335</v>
       </c>
@@ -64295,7 +64295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>1337</v>
       </c>
@@ -64387,7 +64387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>1339</v>
       </c>
@@ -64479,7 +64479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>1341</v>
       </c>
@@ -64571,7 +64571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>1343</v>
       </c>
@@ -64663,7 +64663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>1345</v>
       </c>
@@ -64755,7 +64755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>1347</v>
       </c>
@@ -64847,7 +64847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>1349</v>
       </c>
@@ -64939,7 +64939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>1351</v>
       </c>
@@ -65031,7 +65031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>1353</v>
       </c>
@@ -65123,7 +65123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>1355</v>
       </c>
@@ -65215,7 +65215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>1357</v>
       </c>
@@ -65307,7 +65307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>1359</v>
       </c>
@@ -65399,7 +65399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>1361</v>
       </c>
@@ -65491,7 +65491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>1363</v>
       </c>
@@ -65583,7 +65583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>1365</v>
       </c>
@@ -65675,7 +65675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>1367</v>
       </c>
@@ -65767,7 +65767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>1369</v>
       </c>
@@ -65859,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>1371</v>
       </c>
@@ -65951,7 +65951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>1373</v>
       </c>
@@ -66043,7 +66043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>1375</v>
       </c>
@@ -66135,7 +66135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>1377</v>
       </c>
@@ -66227,7 +66227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>1379</v>
       </c>
@@ -66319,7 +66319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>1381</v>
       </c>
@@ -66411,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>1383</v>
       </c>
@@ -66503,7 +66503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>1385</v>
       </c>
@@ -66595,7 +66595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>1387</v>
       </c>
@@ -66694,6 +66694,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B5D9944A06FA554DA0DC60B4D6E5FB25" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0f8ee98860c2ed0e2127eab58c2298c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8eb75f91-6b8b-4e79-89a5-aaae75df8fad" xmlns:ns3="b35eceb9-5b5c-4f32-adad-c091cc6a3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27fd700e2fb18aecbaf1544ce50fd18c" ns2:_="" ns3:_="">
     <xsd:import namespace="8eb75f91-6b8b-4e79-89a5-aaae75df8fad"/>
@@ -66941,15 +66950,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -66973,13 +66973,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5375E90-3F4B-4FDB-8602-279D7A0C2C32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E1F5997-3A9E-4CFA-97E0-0C49582C465F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E1F5997-3A9E-4CFA-97E0-0C49582C465F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5375E90-3F4B-4FDB-8602-279D7A0C2C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8eb75f91-6b8b-4e79-89a5-aaae75df8fad"/>
+    <ds:schemaRef ds:uri="b35eceb9-5b5c-4f32-adad-c091cc6a3dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1DCBC1E-B461-4380-B443-D57E0F7A549C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1DCBC1E-B461-4380-B443-D57E0F7A549C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8eb75f91-6b8b-4e79-89a5-aaae75df8fad"/>
+    <ds:schemaRef ds:uri="b35eceb9-5b5c-4f32-adad-c091cc6a3dd1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>